--- a/data/trans_orig/P1803_2016_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1803_2016_2023-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>21981</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13559</v>
+        <v>14133</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32942</v>
+        <v>34480</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05240217785891412</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03232407613252318</v>
+        <v>0.03369325868303214</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07853331658071623</v>
+        <v>0.08220135917199611</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -763,19 +763,19 @@
         <v>19051</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11617</v>
+        <v>11489</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28986</v>
+        <v>28716</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04813947119118531</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02935456020593731</v>
+        <v>0.02903024824065486</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07324129448954614</v>
+        <v>0.07256087755721659</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -784,19 +784,19 @@
         <v>41032</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29190</v>
+        <v>29833</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>54087</v>
+        <v>56115</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05033280808682154</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03580612643784909</v>
+        <v>0.03659536875719272</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06634633191998278</v>
+        <v>0.06883460272148831</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>397482</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>386521</v>
+        <v>384983</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>405904</v>
+        <v>405330</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9475978221410859</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9214666834192832</v>
+        <v>0.917798640828004</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9676759238674768</v>
+        <v>0.9663067413169679</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>385</v>
@@ -834,19 +834,19 @@
         <v>376704</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>366769</v>
+        <v>367039</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>384138</v>
+        <v>384266</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9518605288088147</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9267587055104539</v>
+        <v>0.927439122442784</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9706454397940627</v>
+        <v>0.9709697517593452</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>759</v>
@@ -855,19 +855,19 @@
         <v>774186</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>761131</v>
+        <v>759103</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>786028</v>
+        <v>785385</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9496671919131785</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9336536680800172</v>
+        <v>0.9311653972785117</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9641938735621509</v>
+        <v>0.9634046312428072</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>26576</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17915</v>
+        <v>17544</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37699</v>
+        <v>38962</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04500590731712822</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03033815046126173</v>
+        <v>0.02970997997777834</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06384305025201749</v>
+        <v>0.06598259995170837</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -980,19 +980,19 @@
         <v>40138</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28378</v>
+        <v>29973</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>52731</v>
+        <v>55359</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0712239641187333</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05035599194575536</v>
+        <v>0.05318710129349695</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09357118942395698</v>
+        <v>0.09823298533965653</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>64</v>
@@ -1001,19 +1001,19 @@
         <v>66714</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>51307</v>
+        <v>51296</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>84654</v>
+        <v>83831</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05780877463930172</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04445859036869685</v>
+        <v>0.04444894667141976</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07335446324387301</v>
+        <v>0.07264111455882097</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>563920</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>552797</v>
+        <v>551534</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>572581</v>
+        <v>572952</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9549940926828718</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9361569497479825</v>
+        <v>0.9340174000482914</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9696618495387382</v>
+        <v>0.970290020022221</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>539</v>
@@ -1051,19 +1051,19 @@
         <v>523406</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>510813</v>
+        <v>508185</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>535166</v>
+        <v>533571</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9287760358812667</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9064288105760431</v>
+        <v>0.9017670146603434</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9496440080542445</v>
+        <v>0.946812898706503</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1082</v>
@@ -1072,19 +1072,19 @@
         <v>1087326</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1069386</v>
+        <v>1070209</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1102733</v>
+        <v>1102744</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9421912253606983</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9266455367561269</v>
+        <v>0.9273588854411791</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9555414096313025</v>
+        <v>0.9555510533285803</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>40137</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>28143</v>
+        <v>28110</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54219</v>
+        <v>54038</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05998679808235911</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04206071996386281</v>
+        <v>0.04201117584558957</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08103298401424837</v>
+        <v>0.08076188576532596</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -1197,19 +1197,19 @@
         <v>29776</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20396</v>
+        <v>20464</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44018</v>
+        <v>43511</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04502016479417047</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03083803427482057</v>
+        <v>0.03094124941782889</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06655435798867636</v>
+        <v>0.06578757904107413</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -1218,19 +1218,19 @@
         <v>69913</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53020</v>
+        <v>53949</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>87261</v>
+        <v>89177</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05254684873325241</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03985023078693191</v>
+        <v>0.04054813775494728</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0655856532276438</v>
+        <v>0.0670262452710414</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>628960</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>614878</v>
+        <v>615059</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>640954</v>
+        <v>640987</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9400132019176409</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9189670159857516</v>
+        <v>0.9192381142346741</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9579392800361372</v>
+        <v>0.9579888241544104</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>636</v>
@@ -1268,19 +1268,19 @@
         <v>631610</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>617368</v>
+        <v>617875</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>640990</v>
+        <v>640922</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9549798352058295</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9334456420113236</v>
+        <v>0.9342124209589259</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9691619657251794</v>
+        <v>0.9690587505821712</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1237</v>
@@ -1289,19 +1289,19 @@
         <v>1260570</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1243222</v>
+        <v>1241306</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1277463</v>
+        <v>1276534</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9474531512667476</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9344143467723562</v>
+        <v>0.9329737547289583</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9601497692130682</v>
+        <v>0.9594518622450525</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>30971</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20956</v>
+        <v>20921</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46651</v>
+        <v>44830</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04793969616293354</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03243770691000806</v>
+        <v>0.03238373453716986</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07220924794612732</v>
+        <v>0.06939113912900957</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>32</v>
@@ -1414,19 +1414,19 @@
         <v>34129</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>24776</v>
+        <v>25278</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48267</v>
+        <v>47792</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0525811492465011</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.038170780772306</v>
+        <v>0.03894507722890202</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07436284830610501</v>
+        <v>0.07363054061002043</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>59</v>
@@ -1435,19 +1435,19 @@
         <v>65101</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>49174</v>
+        <v>49425</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>84996</v>
+        <v>83787</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05026584970666361</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03796854228838019</v>
+        <v>0.0381622538915001</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06562759805002084</v>
+        <v>0.06469395058421812</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>615077</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>599397</v>
+        <v>601218</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>625092</v>
+        <v>625127</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9520603038370664</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9277907520538721</v>
+        <v>0.9306088608709904</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9675622930899919</v>
+        <v>0.9676162654628302</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>570</v>
@@ -1485,19 +1485,19 @@
         <v>614948</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>600810</v>
+        <v>601285</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>624301</v>
+        <v>623799</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9474188507534989</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9256371516938949</v>
+        <v>0.9263694593899795</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.961829219227694</v>
+        <v>0.9610549227710979</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1125</v>
@@ -1506,19 +1506,19 @@
         <v>1230024</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1210129</v>
+        <v>1211338</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1245951</v>
+        <v>1245700</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9497341502933364</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9343724019499788</v>
+        <v>0.9353060494157817</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9620314577116198</v>
+        <v>0.9618377461084998</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>22291</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13876</v>
+        <v>13739</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32562</v>
+        <v>33097</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04664277871100105</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02903483543504761</v>
+        <v>0.02874692546784499</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06813262627386465</v>
+        <v>0.06925315434343034</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -1631,19 +1631,19 @@
         <v>31259</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>21339</v>
+        <v>20779</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46518</v>
+        <v>46085</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06291536963397608</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04294804093738451</v>
+        <v>0.0418208669877689</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09362674770765085</v>
+        <v>0.0927552757584978</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>46</v>
@@ -1652,19 +1652,19 @@
         <v>53551</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39423</v>
+        <v>39802</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69694</v>
+        <v>70678</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05493708960912293</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04044344586765413</v>
+        <v>0.04083257029010326</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07149770804153996</v>
+        <v>0.07250771476524712</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>455627</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>445356</v>
+        <v>444821</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>464042</v>
+        <v>464179</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9533572212889989</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9318673737261349</v>
+        <v>0.9307468456565696</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9709651645649519</v>
+        <v>0.9712530745321549</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>407</v>
@@ -1702,19 +1702,19 @@
         <v>465590</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>450331</v>
+        <v>450764</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>475510</v>
+        <v>476070</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.937084630366024</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9063732522923493</v>
+        <v>0.9072447242415027</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9570519590626155</v>
+        <v>0.9581791330122311</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>811</v>
@@ -1723,19 +1723,19 @@
         <v>921216</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>905073</v>
+        <v>904089</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>935344</v>
+        <v>934965</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9450629103908771</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9285022919584608</v>
+        <v>0.927492285234753</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.959556554132346</v>
+        <v>0.9591674297098968</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>6866</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2866</v>
+        <v>2967</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13000</v>
+        <v>13290</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0205352318963794</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008571082152304392</v>
+        <v>0.00887542233561696</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03888382607258625</v>
+        <v>0.03974986174929766</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -1848,19 +1848,19 @@
         <v>26327</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16502</v>
+        <v>17384</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37962</v>
+        <v>39381</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06969073713805574</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04368274741143124</v>
+        <v>0.04601826032108509</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.100492512296468</v>
+        <v>0.1042488203848896</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>30</v>
@@ -1869,19 +1869,19 @@
         <v>33192</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23489</v>
+        <v>22096</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>47700</v>
+        <v>46709</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04661203384899809</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03298583184530006</v>
+        <v>0.03102940024195443</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06698516093341111</v>
+        <v>0.06559445703948122</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>327464</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>321330</v>
+        <v>321040</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>331464</v>
+        <v>331363</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9794647681036206</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9611161739274137</v>
+        <v>0.9602501382507019</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9914289178476955</v>
+        <v>0.991124577664383</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>331</v>
@@ -1919,19 +1919,19 @@
         <v>351435</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>339800</v>
+        <v>338381</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>361260</v>
+        <v>360378</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9303092628619443</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8995074877035319</v>
+        <v>0.8957511796151104</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9563172525885687</v>
+        <v>0.9539817396789149</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>649</v>
@@ -1940,19 +1940,19 @@
         <v>678900</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>664392</v>
+        <v>665383</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>688603</v>
+        <v>689996</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9533879661510019</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9330148390665889</v>
+        <v>0.9344055429605188</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9670141681547</v>
+        <v>0.9689705997580456</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>6683</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3272</v>
+        <v>3262</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13370</v>
+        <v>12487</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02600426728308556</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01273125058425965</v>
+        <v>0.0126938772306578</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0520250450523177</v>
+        <v>0.04858622143557508</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -2065,19 +2065,19 @@
         <v>15026</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7639</v>
+        <v>8500</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>25579</v>
+        <v>24999</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03754999012857561</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01908848969138324</v>
+        <v>0.02124144515655876</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06392071582024147</v>
+        <v>0.06247218057360845</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -2086,19 +2086,19 @@
         <v>21709</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13713</v>
+        <v>13640</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33967</v>
+        <v>32757</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03303480952774875</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02086726957053209</v>
+        <v>0.02075527168667128</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05168767195007359</v>
+        <v>0.04984553673016397</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>250315</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>243628</v>
+        <v>244511</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>253726</v>
+        <v>253736</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9739957327169144</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9479749549476834</v>
+        <v>0.951413778564425</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9872687494157404</v>
+        <v>0.9873061227693423</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>289</v>
@@ -2136,19 +2136,19 @@
         <v>385143</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>374590</v>
+        <v>375170</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>392530</v>
+        <v>391669</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9624500098714244</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9360792841797585</v>
+        <v>0.9375278194263915</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9809115103086168</v>
+        <v>0.9787585548434412</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>583</v>
@@ -2157,19 +2157,19 @@
         <v>635458</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>623200</v>
+        <v>624410</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>643454</v>
+        <v>643527</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9669651904722513</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9483123280499275</v>
+        <v>0.9501544632698359</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.979132730429468</v>
+        <v>0.9792447283133278</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>155505</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>131127</v>
+        <v>131176</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>182074</v>
+        <v>181618</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0458128717987772</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03863103697458815</v>
+        <v>0.03864543730584946</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0536402934647028</v>
+        <v>0.05350592578684288</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>181</v>
@@ -2282,19 +2282,19 @@
         <v>195706</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>168621</v>
+        <v>167255</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>226957</v>
+        <v>226052</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05521347562307298</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04757200716565334</v>
+        <v>0.04718654689299749</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0640300380394426</v>
+        <v>0.06377454952084659</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>323</v>
@@ -2303,19 +2303,19 @@
         <v>351211</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>313118</v>
+        <v>315572</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>392676</v>
+        <v>389115</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05061491129271722</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04512500734962572</v>
+        <v>0.04547872532519533</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05659059825878934</v>
+        <v>0.05607738517900533</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>3238845</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3212276</v>
+        <v>3212732</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3263223</v>
+        <v>3263174</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9541871282012228</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.946359706535297</v>
+        <v>0.9464940742131573</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9613689630254117</v>
+        <v>0.9613545626941505</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3157</v>
@@ -2353,19 +2353,19 @@
         <v>3348836</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3317585</v>
+        <v>3318490</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3375921</v>
+        <v>3377287</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.944786524376927</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9359699619605575</v>
+        <v>0.9362254504791531</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.952427992834347</v>
+        <v>0.9528134531070025</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6246</v>
@@ -2374,19 +2374,19 @@
         <v>6587681</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6546216</v>
+        <v>6549777</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6625774</v>
+        <v>6623320</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9493850887072828</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9434094017412107</v>
+        <v>0.9439226148209953</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9548749926503742</v>
+        <v>0.9545212746748049</v>
       </c>
     </row>
     <row r="27">
@@ -2721,19 +2721,19 @@
         <v>22952</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11196</v>
+        <v>11459</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43474</v>
+        <v>42707</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05628381871704682</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02745460969647691</v>
+        <v>0.02810066861124253</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1066071080262047</v>
+        <v>0.1047265729269368</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -2742,19 +2742,19 @@
         <v>18216</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8733</v>
+        <v>8882</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33485</v>
+        <v>33864</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05024976551967789</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02409020070611178</v>
+        <v>0.02450179997089178</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09236891938591824</v>
+        <v>0.09341519984074154</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -2763,19 +2763,19 @@
         <v>41168</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25983</v>
+        <v>25388</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64775</v>
+        <v>64226</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05344414295901903</v>
+        <v>0.05344414295901902</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03373034124786315</v>
+        <v>0.0329582579211287</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08409050657191952</v>
+        <v>0.08337759223716697</v>
       </c>
     </row>
     <row r="5">
@@ -2792,19 +2792,19 @@
         <v>384841</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>364319</v>
+        <v>365086</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>396597</v>
+        <v>396334</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9437161812829532</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8933928919737952</v>
+        <v>0.8952734270730632</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9725453903035232</v>
+        <v>0.9718993313887577</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>197</v>
@@ -2813,19 +2813,19 @@
         <v>344296</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>329027</v>
+        <v>328648</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>353779</v>
+        <v>353630</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.949750234480322</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9076310806140814</v>
+        <v>0.9065848001592591</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9759097992938881</v>
+        <v>0.975498200029108</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>360</v>
@@ -2834,19 +2834,19 @@
         <v>729137</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>705530</v>
+        <v>706079</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>744322</v>
+        <v>744917</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9465558570409811</v>
+        <v>0.946555857040981</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9159094934280805</v>
+        <v>0.916622407762833</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9662696587521369</v>
+        <v>0.9670417420788713</v>
       </c>
     </row>
     <row r="6">
@@ -2938,19 +2938,19 @@
         <v>35387</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23366</v>
+        <v>21804</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52082</v>
+        <v>52062</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07420405655592845</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04899718334099354</v>
+        <v>0.04572120007124787</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1092113272367395</v>
+        <v>0.109170391655949</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -2959,19 +2959,19 @@
         <v>48639</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35601</v>
+        <v>34907</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63525</v>
+        <v>65040</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09706849140784694</v>
+        <v>0.09706849140784696</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07104835129025062</v>
+        <v>0.06966250527280735</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1267744825879847</v>
+        <v>0.1297983585241584</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -2980,19 +2980,19 @@
         <v>84027</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63705</v>
+        <v>65345</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>105588</v>
+        <v>106186</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08591908090404771</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06513981608481784</v>
+        <v>0.06681669183795109</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1079657696704721</v>
+        <v>0.1085773046997282</v>
       </c>
     </row>
     <row r="8">
@@ -3009,19 +3009,19 @@
         <v>441503</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>424808</v>
+        <v>424828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>453524</v>
+        <v>455086</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9257959434440715</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8907886727632605</v>
+        <v>0.8908296083440509</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9510028166590064</v>
+        <v>0.9542787999287522</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>418</v>
@@ -3030,19 +3030,19 @@
         <v>452444</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>437558</v>
+        <v>436043</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>465482</v>
+        <v>466176</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.902931508592153</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8732255174120154</v>
+        <v>0.8702016414758419</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9289516487097493</v>
+        <v>0.9303374947271928</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>697</v>
@@ -3051,19 +3051,19 @@
         <v>893946</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>872385</v>
+        <v>871787</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>914268</v>
+        <v>912628</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9140809190959521</v>
+        <v>0.9140809190959522</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8920342303295278</v>
+        <v>0.8914226953002716</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9348601839151821</v>
+        <v>0.9331833081620489</v>
       </c>
     </row>
     <row r="9">
@@ -3155,19 +3155,19 @@
         <v>69075</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54059</v>
+        <v>54215</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>87669</v>
+        <v>86868</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1112613657780869</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08707480495497003</v>
+        <v>0.08732506653276148</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1412106546481745</v>
+        <v>0.1399207575982335</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>86</v>
@@ -3176,19 +3176,19 @@
         <v>62127</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>50303</v>
+        <v>50519</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>76012</v>
+        <v>74774</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09986109546127826</v>
+        <v>0.09986109546127825</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08085497946106959</v>
+        <v>0.08120155283192711</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1221781992828926</v>
+        <v>0.1201878317333898</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>147</v>
@@ -3197,19 +3197,19 @@
         <v>131203</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>113787</v>
+        <v>112703</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>154534</v>
+        <v>154254</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1055552578429579</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09154437571878506</v>
+        <v>0.09067194250132625</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1243255064621885</v>
+        <v>0.124100620968943</v>
       </c>
     </row>
     <row r="11">
@@ -3226,19 +3226,19 @@
         <v>551762</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>533168</v>
+        <v>533969</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>566778</v>
+        <v>566622</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8887386342219131</v>
+        <v>0.8887386342219133</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8587893453518254</v>
+        <v>0.8600792424017665</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9129251950450299</v>
+        <v>0.9126749334672383</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>760</v>
@@ -3247,19 +3247,19 @@
         <v>560012</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>546127</v>
+        <v>547365</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>571836</v>
+        <v>571620</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9001389045387217</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8778218007171074</v>
+        <v>0.8798121682666101</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9191450205389302</v>
+        <v>0.9187984471680728</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1245</v>
@@ -3268,19 +3268,19 @@
         <v>1111773</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1088442</v>
+        <v>1088722</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1129189</v>
+        <v>1130273</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8944447421570419</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8756744935378116</v>
+        <v>0.875899379031057</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9084556242812148</v>
+        <v>0.9093280574986737</v>
       </c>
     </row>
     <row r="12">
@@ -3372,19 +3372,19 @@
         <v>72711</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57620</v>
+        <v>58166</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90571</v>
+        <v>91887</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1037807918359543</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08224169693534603</v>
+        <v>0.08302134795747536</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1292728125036479</v>
+        <v>0.1311512575568151</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>133</v>
@@ -3393,19 +3393,19 @@
         <v>83439</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>70143</v>
+        <v>71830</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>97868</v>
+        <v>98450</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1132315523487732</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09518846137319006</v>
+        <v>0.09747734680233032</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1328131016186714</v>
+        <v>0.1336029490086905</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>200</v>
@@ -3414,19 +3414,19 @@
         <v>156149</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>136946</v>
+        <v>135647</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>180667</v>
+        <v>180280</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1086253967285613</v>
+        <v>0.1086253967285614</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09526678926418423</v>
+        <v>0.09436294901336022</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1256813116228756</v>
+        <v>0.1254117560738064</v>
       </c>
     </row>
     <row r="14">
@@ -3443,19 +3443,19 @@
         <v>627906</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>610046</v>
+        <v>608730</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>642997</v>
+        <v>642451</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8962192081640458</v>
+        <v>0.8962192081640457</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8707271874963521</v>
+        <v>0.8688487424431851</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9177583030646541</v>
+        <v>0.9169786520425247</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1008</v>
@@ -3464,19 +3464,19 @@
         <v>653447</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>639018</v>
+        <v>638436</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>666743</v>
+        <v>665056</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8867684476512269</v>
+        <v>0.886768447651227</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8671868983813286</v>
+        <v>0.8663970509913095</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.90481153862681</v>
+        <v>0.9025226531976698</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1606</v>
@@ -3485,19 +3485,19 @@
         <v>1281355</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1256837</v>
+        <v>1257224</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1300558</v>
+        <v>1301857</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8913746032714385</v>
+        <v>0.8913746032714386</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8743186883771243</v>
+        <v>0.8745882439261934</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9047332107358156</v>
+        <v>0.9056370509866397</v>
       </c>
     </row>
     <row r="15">
@@ -3592,16 +3592,16 @@
         <v>35070</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59100</v>
+        <v>60055</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07545445169134175</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05755392953450769</v>
+        <v>0.05755416269528194</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09698960762517796</v>
+        <v>0.09855670026083942</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>136</v>
@@ -3610,19 +3610,19 @@
         <v>79423</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67421</v>
+        <v>66962</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>93299</v>
+        <v>91126</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1307082720360055</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1109577213929594</v>
+        <v>0.1102012913869994</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1535458913876841</v>
+        <v>0.1499685673138099</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>188</v>
@@ -3631,19 +3631,19 @@
         <v>125400</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>107259</v>
+        <v>108834</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>143992</v>
+        <v>143858</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1030424316047361</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08813591450567157</v>
+        <v>0.0894295089265013</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1183195701995055</v>
+        <v>0.1182093626281016</v>
       </c>
     </row>
     <row r="17">
@@ -3660,19 +3660,19 @@
         <v>563368</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>550246</v>
+        <v>549291</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>574276</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9245455483086581</v>
+        <v>0.9245455483086583</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9030103923748221</v>
+        <v>0.9014432997391604</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9424460704654922</v>
+        <v>0.9424458373047179</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>864</v>
@@ -3681,19 +3681,19 @@
         <v>528209</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>514333</v>
+        <v>516506</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>540211</v>
+        <v>540670</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8692917279639943</v>
+        <v>0.8692917279639947</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8464541086123161</v>
+        <v>0.8500314326861899</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8890422786070408</v>
+        <v>0.8897987086130005</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1475</v>
@@ -3702,19 +3702,19 @@
         <v>1091578</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1072986</v>
+        <v>1073120</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1109719</v>
+        <v>1108144</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8969575683952641</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8816804298004945</v>
+        <v>0.8817906373718983</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9118640854943285</v>
+        <v>0.910570491073499</v>
       </c>
     </row>
     <row r="18">
@@ -3806,19 +3806,19 @@
         <v>26002</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18684</v>
+        <v>18235</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36230</v>
+        <v>34855</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06387329210625801</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04589707790947829</v>
+        <v>0.0447938218797965</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08899858673732261</v>
+        <v>0.08562253478296721</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>88</v>
@@ -3827,19 +3827,19 @@
         <v>47937</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38621</v>
+        <v>38644</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>57330</v>
+        <v>57617</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.109155674770325</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08794230865281037</v>
+        <v>0.08799481529429691</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1305426516098556</v>
+        <v>0.1311966638710489</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>125</v>
@@ -3848,19 +3848,19 @@
         <v>73939</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>60810</v>
+        <v>61658</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>86624</v>
+        <v>86440</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08737295214997369</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07185891769054975</v>
+        <v>0.07286103505176786</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1023624592188812</v>
+        <v>0.1021451544618279</v>
       </c>
     </row>
     <row r="20">
@@ -3877,19 +3877,19 @@
         <v>381078</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>370850</v>
+        <v>372225</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>388396</v>
+        <v>388845</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.936126707893742</v>
+        <v>0.9361267078937421</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.911001413262677</v>
+        <v>0.9143774652170331</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9541029220905215</v>
+        <v>0.9552061781202036</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>739</v>
@@ -3898,19 +3898,19 @@
         <v>391229</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>381836</v>
+        <v>381549</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>400545</v>
+        <v>400522</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8908443252296749</v>
+        <v>0.8908443252296748</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8694573483901443</v>
+        <v>0.8688033361289511</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9120576913471895</v>
+        <v>0.9120051847057032</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1272</v>
@@ -3919,19 +3919,19 @@
         <v>772307</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>759622</v>
+        <v>759806</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>785436</v>
+        <v>784588</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9126270478500262</v>
+        <v>0.9126270478500264</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8976375407811187</v>
+        <v>0.8978548455381721</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9281410823094501</v>
+        <v>0.9271389649482321</v>
       </c>
     </row>
     <row r="21">
@@ -4023,19 +4023,19 @@
         <v>9892</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>5545</v>
+        <v>5419</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16899</v>
+        <v>16855</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03188828647743185</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0178748418886644</v>
+        <v>0.01746840382346863</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05447808131114316</v>
+        <v>0.05433627704530687</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>56</v>
@@ -4044,19 +4044,19 @@
         <v>31025</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23465</v>
+        <v>23437</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40126</v>
+        <v>39767</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06686254203953179</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05057028583416554</v>
+        <v>0.05050954689092069</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08647536546427598</v>
+        <v>0.08570257445631298</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>70</v>
@@ -4065,19 +4065,19 @@
         <v>40917</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32051</v>
+        <v>31748</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>50991</v>
+        <v>51261</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05284962614682517</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04139877738334921</v>
+        <v>0.04100742782939816</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06586210115103665</v>
+        <v>0.06621037896462652</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>300306</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>293299</v>
+        <v>293343</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>304653</v>
+        <v>304779</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.968111713522568</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9455219186888568</v>
+        <v>0.9456637229546933</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9821251581113358</v>
+        <v>0.9825315961765314</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>824</v>
@@ -4115,19 +4115,19 @@
         <v>432988</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>423887</v>
+        <v>424246</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>440548</v>
+        <v>440576</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9331374579604682</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9135246345357241</v>
+        <v>0.9142974255436869</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9494297141658345</v>
+        <v>0.9494904531090793</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1268</v>
@@ -4136,19 +4136,19 @@
         <v>733294</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>723220</v>
+        <v>722950</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>742160</v>
+        <v>742463</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9471503738531748</v>
+        <v>0.9471503738531746</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9341378988489628</v>
+        <v>0.9337896210353732</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9586012226166508</v>
+        <v>0.9589925721706016</v>
       </c>
     </row>
     <row r="24">
@@ -4240,19 +4240,19 @@
         <v>281996</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>246922</v>
+        <v>246384</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>316698</v>
+        <v>318309</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07982316085622014</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06989497205112116</v>
+        <v>0.06974268496579876</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08964592226589606</v>
+        <v>0.0901020470619205</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>551</v>
@@ -4261,19 +4261,19 @@
         <v>370807</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>340613</v>
+        <v>338900</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>402814</v>
+        <v>404013</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09932065443008187</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09123318822905967</v>
+        <v>0.09077431114984584</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1078936863307551</v>
+        <v>0.1082149185606959</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>814</v>
@@ -4282,19 +4282,19 @@
         <v>652803</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>608229</v>
+        <v>609764</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>700622</v>
+        <v>703435</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.08984113736797675</v>
+        <v>0.08984113736797676</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08370663893180499</v>
+        <v>0.08391791950242071</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09642219314618809</v>
+        <v>0.09680929483629289</v>
       </c>
     </row>
     <row r="26">
@@ -4311,19 +4311,19 @@
         <v>3250766</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3216064</v>
+        <v>3214453</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3285840</v>
+        <v>3286378</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.92017683914378</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9103540777341044</v>
+        <v>0.9098979529380795</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9301050279488788</v>
+        <v>0.9302573150342013</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4810</v>
@@ -4332,19 +4332,19 @@
         <v>3362624</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3330617</v>
+        <v>3329418</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3392818</v>
+        <v>3394531</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9006793455699181</v>
+        <v>0.900679345569918</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8921063136692446</v>
+        <v>0.8917850814393037</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9087668117709401</v>
+        <v>0.9092256888501539</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7923</v>
@@ -4353,19 +4353,19 @@
         <v>6613390</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6565571</v>
+        <v>6562758</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6657964</v>
+        <v>6656429</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9101588626320234</v>
+        <v>0.9101588626320233</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9035778068538121</v>
+        <v>0.9031907051637071</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9162933610681949</v>
+        <v>0.9160820804975792</v>
       </c>
     </row>
     <row r="27">
